--- a/2020_SummerTrip.xlsx
+++ b/2020_SummerTrip.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="行程" sheetId="3" r:id="rId1"/>
     <sheet name="高鐵" sheetId="2" r:id="rId2"/>
     <sheet name="記帳表" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">記帳表!$C$1:$C$56</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="174">
   <si>
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>格上早鳥租車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最終</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,10 +381,6 @@
   </si>
   <si>
     <t>五人單價(+yo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四人單價(-秦)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -513,10 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果沒有去牧場合作社就去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>濰克早午餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,6 +520,26 @@
   </si>
   <si>
     <t>4分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂島、砂島貝殼展示館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓九點出門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍磐公園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIZZA ROCK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -538,11 +548,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>砂島、砂島貝殼展示館</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓九點出門</t>
+    <t>單點主餐大概500UP 價格偏高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連鎖店 價格較親民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐(美式餐廳)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200-1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果沒有去牧場合作社就去/去農場的話就去巷口大街吃早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿總額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿扣除阿蔡與折扣1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款給阿蔡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6人房費平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹丹漢堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格上租車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格上租車訂金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50嵐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿三哥晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-eleven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南灣停車費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮淺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麋鹿小章魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墾丁國家公園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關山門票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墾丁大街(水果 香腸)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恆春假日夜市-滷味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恆春假日夜市-地瓜球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恆春假日夜市-章魚燒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恆春假日夜市-皮蛋臭豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恆春假日夜市-蚵仔煎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愛玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濰克早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墾丁牧場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶的魔手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡丁車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公款總計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公款收費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公款剩餘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂刷卡總計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林刷卡總計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林刷卡總計高鐵(人)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +736,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -623,8 +805,29 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,8 +846,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -876,13 +1085,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,12 +1207,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,17 +1240,143 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1033,101 +1399,50 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,352 +1724,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="24"/>
-    <col min="2" max="2" width="12" style="34" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="10" style="34" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="32" customWidth="1"/>
-    <col min="6" max="6" width="9" style="24"/>
-    <col min="7" max="7" width="56" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12" style="32" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="30" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="25" customWidth="1"/>
+    <col min="7" max="7" width="61.875" style="25" customWidth="1"/>
     <col min="8" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="23" customFormat="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="53" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="23" customFormat="1">
-      <c r="A2" s="40">
+      <c r="A2" s="57">
         <v>44016</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="43">
         <v>1490</v>
       </c>
-      <c r="G2" s="76"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="41"/>
-      <c r="C3" s="73" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:7" ht="31.5">
-      <c r="A4" s="41"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="58"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="58"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:7" ht="31.5">
+      <c r="A7" s="58"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="58"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.5">
+      <c r="A9" s="58"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="58"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="58"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="58"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="49"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="50">
+        <v>44017</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="37.5" customHeight="1">
+      <c r="A15" s="49"/>
+      <c r="B15" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="37.5" customHeight="1">
+      <c r="A16" s="49"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="51"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="49"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="51"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="49"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="51"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="49"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="49"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="49"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="49"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="49"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="49"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="49"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+    </row>
+    <row r="26" spans="1:7" ht="47.25">
+      <c r="A26" s="49"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="41"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="41"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-    </row>
-    <row r="7" spans="1:7" ht="31.5">
-      <c r="A7" s="41"/>
-      <c r="C7" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="41"/>
-      <c r="C8" s="79" t="s">
+      <c r="E26" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="49"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="49"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="50">
+        <v>44018</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78" t="s">
+      <c r="D29" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="55" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.5">
-      <c r="A9" s="41"/>
-      <c r="C9" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="41"/>
-      <c r="C10" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="C11" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="27">
-        <v>44017</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="37.5" customHeight="1">
-      <c r="C14" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="80" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="81"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="81"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="C17" s="33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="C18" s="33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="C19" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="C20" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="C21" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="C23" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="47.25">
-      <c r="C24" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="C25" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="27">
-        <v>44018</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="33" t="s">
+      <c r="F29" s="48"/>
+      <c r="G29" s="56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="49"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="C28" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="42"/>
-      <c r="G28" s="41"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="56"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="49"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="49"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A2:A11"/>
+  <mergeCells count="4">
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1813,22 +2271,22 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="82">
         <v>44016</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="72">
         <v>2</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="72">
         <v>805</v>
       </c>
       <c r="G2" s="10">
@@ -1842,7 +2300,7 @@
         <f>SUM(O1-H2)</f>
         <v>298</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="74" t="s">
         <v>16</v>
       </c>
       <c r="N2" t="s">
@@ -1853,12 +2311,12 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="10">
         <v>0.9</v>
       </c>
@@ -1870,17 +2328,17 @@
         <f>SUM(O1-H3)</f>
         <v>149</v>
       </c>
-      <c r="J3" s="62"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" hidden="1" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="10">
         <v>0.8</v>
       </c>
@@ -1892,15 +2350,15 @@
         <f>SUM(O2-H4)</f>
         <v>158</v>
       </c>
-      <c r="J4" s="62"/>
+      <c r="J4" s="74"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" hidden="1" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="10">
         <v>0.9</v>
       </c>
@@ -1912,16 +2370,16 @@
         <f>SUM(O2-H5)</f>
         <v>79</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="74"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="70">
         <v>1</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="65" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="69">
@@ -1937,16 +2395,16 @@
       <c r="I6" s="13">
         <v>298</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="65" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="69"/>
       <c r="G7" s="12">
         <v>0.9</v>
@@ -1958,14 +2416,14 @@
       <c r="I7" s="13">
         <v>149</v>
       </c>
-      <c r="J7" s="63"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="52">
+      <c r="E8" s="70">
         <v>1017</v>
       </c>
       <c r="F8" s="69"/>
@@ -1979,14 +2437,14 @@
       <c r="I8" s="13">
         <v>158</v>
       </c>
-      <c r="J8" s="63"/>
+      <c r="J8" s="65"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="52"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="69"/>
       <c r="G9" s="12">
         <v>0.9</v>
@@ -1998,31 +2456,31 @@
       <c r="I9" s="13">
         <v>79</v>
       </c>
-      <c r="J9" s="63"/>
+      <c r="J9" s="65"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="28" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <v>851</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <v>1209</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="28">
         <v>1</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="26">
         <v>1490</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="26">
         <v>0</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="29" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2035,22 +2493,22 @@
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="79">
         <v>44018</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="76">
         <v>4</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="63">
         <v>846</v>
       </c>
       <c r="G12" s="17">
@@ -2064,17 +2522,17 @@
         <f>SUM(O1-H12)</f>
         <v>521.5</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="86">
         <v>1942</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="6">
         <v>0.8</v>
       </c>
@@ -2085,15 +2543,15 @@
       <c r="I13" s="14">
         <v>298</v>
       </c>
-      <c r="J13" s="47"/>
+      <c r="J13" s="87"/>
     </row>
     <row r="14" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A14" s="51"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="6">
         <v>0.9</v>
       </c>
@@ -2104,81 +2562,81 @@
       <c r="I14" s="14">
         <v>149</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="87"/>
     </row>
     <row r="15" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="66" t="s">
+      <c r="A15" s="73"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="64">
         <v>850</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="33">
         <v>0.65</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="34">
         <v>968.5</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="34">
         <v>521.5</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="88" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="37">
+      <c r="A16" s="73"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="35">
         <v>0.8</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="36">
         <v>1192</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="36">
         <v>298</v>
       </c>
-      <c r="J16" s="48"/>
+      <c r="J16" s="88"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="37">
+      <c r="A17" s="73"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="35">
         <v>0.9</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="36">
         <v>1341</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="36">
         <v>149</v>
       </c>
-      <c r="J17" s="48"/>
+      <c r="J17" s="88"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="55">
+      <c r="A18" s="73"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="77">
         <v>2</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="60">
         <v>678</v>
       </c>
       <c r="G18" s="6">
@@ -2190,17 +2648,17 @@
       <c r="I18" s="14">
         <v>298</v>
       </c>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="87" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="6">
         <v>0.9</v>
       </c>
@@ -2210,19 +2668,19 @@
       <c r="I19" s="14">
         <v>149</v>
       </c>
-      <c r="J19" s="47"/>
+      <c r="J19" s="87"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="55">
+      <c r="A20" s="73"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="77">
         <v>3</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="60">
         <v>854</v>
       </c>
       <c r="G20" s="6">
@@ -2234,17 +2692,17 @@
       <c r="I20" s="14">
         <v>298</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="87" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="7">
         <v>0.9</v>
       </c>
@@ -2254,7 +2712,7 @@
       <c r="I21" s="15">
         <v>149</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="89"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4"/>
@@ -2269,7 +2727,7 @@
       <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="83" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="5"/>
@@ -2281,7 +2739,7 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="F24" s="44"/>
+      <c r="F24" s="84"/>
       <c r="G24" s="21" t="s">
         <v>39</v>
       </c>
@@ -2292,7 +2750,7 @@
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="F25" s="44"/>
+      <c r="F25" s="84"/>
       <c r="G25" s="14" t="s">
         <v>35</v>
       </c>
@@ -2307,7 +2765,7 @@
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="F26" s="44"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="14" t="s">
         <v>34</v>
       </c>
@@ -2321,7 +2779,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="F27" s="44"/>
+      <c r="F27" s="84"/>
       <c r="G27" s="14" t="s">
         <v>36</v>
       </c>
@@ -2335,7 +2793,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="F28" s="44"/>
+      <c r="F28" s="84"/>
       <c r="G28" s="14" t="s">
         <v>37</v>
       </c>
@@ -2349,7 +2807,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="F29" s="45"/>
+      <c r="F29" s="85"/>
       <c r="G29" s="14" t="s">
         <v>38</v>
       </c>
@@ -2364,23 +2822,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
     <mergeCell ref="C2:C10"/>
     <mergeCell ref="C12:C21"/>
     <mergeCell ref="A12:A21"/>
@@ -2392,11 +2838,23 @@
     <mergeCell ref="B12:B21"/>
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="A2:A10"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2406,160 +2864,1122 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="39" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="24"/>
+    <col min="2" max="2" width="28.125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9" style="24"/>
+    <col min="7" max="7" width="12.25" style="104" customWidth="1"/>
+    <col min="8" max="9" width="16.625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="24" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="26" customFormat="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" s="23" customFormat="1">
+      <c r="A1" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="I1" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="37"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="49">
         <v>50</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="37">
         <v>1</v>
       </c>
-      <c r="E2">
-        <f>SUM(C2*D2)</f>
+      <c r="F2" s="49">
+        <f>SUM(D2*E2)</f>
         <v>50</v>
       </c>
-      <c r="F2" s="39">
-        <f>SUM(E2/5)</f>
+      <c r="G2" s="90">
+        <f>SUM(F2/5)</f>
         <v>10</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="49"/>
+      <c r="B3" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="91">
         <v>14618</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="92">
         <v>1</v>
       </c>
-      <c r="E3">
-        <f>SUM(C3*D3)</f>
+      <c r="F3" s="91">
+        <f t="shared" ref="F3:F7" si="0">SUM(D3*E3)</f>
         <v>14618</v>
       </c>
-      <c r="G3">
-        <f>SUM(E3/5)</f>
-        <v>2923.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="G3" s="93"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="49"/>
+      <c r="B4" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="C4">
-        <v>119</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="D4" s="91">
+        <v>171</v>
+      </c>
+      <c r="E4" s="92">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>119</v>
-      </c>
-      <c r="G4">
-        <f>SUM(E4/5)</f>
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="F4" s="91">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="G4" s="93"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="49">
+        <f>SUM(D3:D4)</f>
+        <v>14789</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49">
+        <f>SUM(D5/6)</f>
+        <v>2464.8333333333335</v>
+      </c>
+      <c r="J5" s="49">
+        <f>SUM(3000-(D5/6))</f>
+        <v>535.16666666666652</v>
+      </c>
+      <c r="K5" s="49"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="49">
+        <f>SUM(D5-I5-1000)</f>
+        <v>11324.166666666666</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="94">
+        <f>SUM(D6*1)</f>
+        <v>11324.166666666666</v>
+      </c>
+      <c r="G6" s="90"/>
+      <c r="H6" s="94">
+        <f>SUM(F6/5)</f>
+        <v>2264.833333333333</v>
+      </c>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C7" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C5">
+      <c r="D7" s="49">
         <v>1490</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E7" s="37">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="F7" s="49">
+        <f t="shared" si="0"/>
         <v>1490</v>
       </c>
-      <c r="F5" s="39">
+      <c r="G7" s="90">
         <v>1490</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7">
+      <c r="D8" s="49">
         <v>965</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="37">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="F8" s="49">
         <v>965</v>
       </c>
-      <c r="F7" s="39">
+      <c r="G8" s="90">
         <v>965</v>
       </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="97"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="98">
+        <v>44016</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="49">
+        <v>186</v>
+      </c>
+      <c r="E10" s="37">
+        <v>1</v>
+      </c>
+      <c r="F10" s="49">
+        <f>SUM(D10*E10)</f>
+        <v>186</v>
+      </c>
+      <c r="G10" s="90"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="99"/>
+      <c r="B11" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="49">
+        <v>471</v>
+      </c>
+      <c r="E11" s="37">
+        <v>1</v>
+      </c>
+      <c r="F11" s="49">
+        <f t="shared" ref="F11:F39" si="1">SUM(D11*E11)</f>
+        <v>471</v>
+      </c>
+      <c r="G11" s="90"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="99"/>
+      <c r="B12" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="49">
+        <v>20</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1</v>
+      </c>
+      <c r="F12" s="49">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G12" s="90"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="99"/>
+      <c r="B13" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="101">
+        <v>3200</v>
+      </c>
+      <c r="E13" s="100">
+        <v>1</v>
+      </c>
+      <c r="F13" s="101">
+        <f t="shared" si="1"/>
+        <v>3200</v>
+      </c>
+      <c r="G13" s="90"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="99"/>
+      <c r="B14" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="101">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="100">
+        <v>1</v>
+      </c>
+      <c r="F14" s="101">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="G14" s="90"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="99"/>
+      <c r="B15" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="49">
+        <v>60</v>
+      </c>
+      <c r="E15" s="37">
+        <v>1</v>
+      </c>
+      <c r="F15" s="49">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G15" s="90"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="99"/>
+      <c r="B16" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="49">
+        <v>235</v>
+      </c>
+      <c r="E16" s="37">
+        <v>1</v>
+      </c>
+      <c r="F16" s="49">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="G16" s="90"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="99"/>
+      <c r="B17" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="49">
+        <v>270</v>
+      </c>
+      <c r="E17" s="37">
+        <v>1</v>
+      </c>
+      <c r="F17" s="49">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="G17" s="90"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="99"/>
+      <c r="B18" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="49">
+        <v>150</v>
+      </c>
+      <c r="E18" s="37">
+        <v>1</v>
+      </c>
+      <c r="F18" s="49">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G18" s="90"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="102"/>
+      <c r="B19" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="49">
+        <v>1310</v>
+      </c>
+      <c r="E19" s="37">
+        <v>1</v>
+      </c>
+      <c r="F19" s="49">
+        <f t="shared" si="1"/>
+        <v>1310</v>
+      </c>
+      <c r="G19" s="90"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="98">
+        <v>44017</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="49">
+        <v>50</v>
+      </c>
+      <c r="E20" s="37">
+        <v>1</v>
+      </c>
+      <c r="F20" s="49">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="99"/>
+      <c r="B21" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="49">
+        <v>240</v>
+      </c>
+      <c r="E21" s="37">
+        <v>1</v>
+      </c>
+      <c r="F21" s="49">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="G21" s="90"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="99"/>
+      <c r="B22" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="49">
+        <v>50</v>
+      </c>
+      <c r="E22" s="37">
+        <v>1</v>
+      </c>
+      <c r="F22" s="49">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G22" s="90"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="99"/>
+      <c r="B23" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="49">
+        <v>151</v>
+      </c>
+      <c r="E23" s="37">
+        <v>1</v>
+      </c>
+      <c r="F23" s="49">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="G23" s="90"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="99"/>
+      <c r="B24" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="49">
+        <v>100</v>
+      </c>
+      <c r="E24" s="37">
+        <v>1</v>
+      </c>
+      <c r="F24" s="49">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G24" s="90"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="99"/>
+      <c r="B25" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="49">
+        <v>350</v>
+      </c>
+      <c r="E25" s="37">
+        <v>5</v>
+      </c>
+      <c r="F25" s="49">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+      <c r="G25" s="90"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="99"/>
+      <c r="B26" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="94">
+        <v>2662</v>
+      </c>
+      <c r="E26" s="103">
+        <v>1</v>
+      </c>
+      <c r="F26" s="94">
+        <f t="shared" si="1"/>
+        <v>2662</v>
+      </c>
+      <c r="G26" s="90"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="99"/>
+      <c r="B27" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="49">
+        <v>350</v>
+      </c>
+      <c r="E27" s="37">
+        <v>1</v>
+      </c>
+      <c r="F27" s="49">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="G27" s="90"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="99"/>
+      <c r="B28" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="49">
+        <v>20</v>
+      </c>
+      <c r="E28" s="37">
+        <v>1</v>
+      </c>
+      <c r="F28" s="49">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G28" s="90"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="99"/>
+      <c r="B29" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="49">
+        <v>40</v>
+      </c>
+      <c r="E29" s="37">
+        <v>1</v>
+      </c>
+      <c r="F29" s="49">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G29" s="90"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="99"/>
+      <c r="B30" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="49">
+        <v>65</v>
+      </c>
+      <c r="E30" s="37">
+        <v>1</v>
+      </c>
+      <c r="F30" s="49">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G30" s="90"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="99"/>
+      <c r="B31" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="49">
+        <v>120</v>
+      </c>
+      <c r="E31" s="37">
+        <v>1</v>
+      </c>
+      <c r="F31" s="49">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G31" s="90"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="99"/>
+      <c r="B32" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="49">
+        <v>25</v>
+      </c>
+      <c r="E32" s="37">
+        <v>1</v>
+      </c>
+      <c r="F32" s="49">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G32" s="90"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="99"/>
+      <c r="B33" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="49">
+        <v>100</v>
+      </c>
+      <c r="E33" s="37">
+        <v>1</v>
+      </c>
+      <c r="F33" s="49">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G33" s="90"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="102"/>
+      <c r="B34" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="103" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="94">
+        <v>75</v>
+      </c>
+      <c r="E34" s="103">
+        <v>5</v>
+      </c>
+      <c r="F34" s="94">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="G34" s="90"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="98">
+        <v>44018</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="49">
+        <v>894</v>
+      </c>
+      <c r="E35" s="37">
+        <v>1</v>
+      </c>
+      <c r="F35" s="49">
+        <f t="shared" si="1"/>
+        <v>894</v>
+      </c>
+      <c r="G35" s="90"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="99"/>
+      <c r="B36" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="49">
+        <v>228</v>
+      </c>
+      <c r="E36" s="37">
+        <v>1</v>
+      </c>
+      <c r="F36" s="49">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+      <c r="G36" s="90"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="99"/>
+      <c r="B37" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="49">
+        <v>180</v>
+      </c>
+      <c r="E37" s="37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="49">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="G37" s="90"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="99"/>
+      <c r="B38" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="101">
+        <v>1604</v>
+      </c>
+      <c r="E38" s="100">
+        <v>1</v>
+      </c>
+      <c r="F38" s="101">
+        <f t="shared" si="1"/>
+        <v>1604</v>
+      </c>
+      <c r="G38" s="90"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="102"/>
+      <c r="B39" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="49">
+        <v>180</v>
+      </c>
+      <c r="E39" s="37">
+        <v>5</v>
+      </c>
+      <c r="F39" s="49">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="G39" s="90"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F50" s="24">
+        <f>SUM(F10+F11+F12+F15+F16+F17+F18+F19+F20+F21+F22+F23+F24+F25+F27+F28+F29+F30+F31+F32+F33+F35+F36+F37+F39)</f>
+        <v>7965</v>
+      </c>
+      <c r="H50" s="24">
+        <f>SUM(F50/5)</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="24">
+        <v>2000</v>
+      </c>
+      <c r="E51" s="23">
+        <v>5</v>
+      </c>
+      <c r="F51" s="24">
+        <f>SUM(D51*E51)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F52" s="24">
+        <f>SUM(F51-F50)</f>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="24">
+        <f>SUM(F6+F26+F34)</f>
+        <v>14361.166666666666</v>
+      </c>
+      <c r="H54" s="24">
+        <f>SUM(F54/5)</f>
+        <v>2872.2333333333331</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F55" s="24">
+        <f>SUM(F13+F14+F38)</f>
+        <v>6004</v>
+      </c>
+      <c r="H55" s="24">
+        <f>SUM(F55/5)</f>
+        <v>1200.8</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F56" s="24">
+        <f>SUM(F7+F8)</f>
+        <v>2455</v>
+      </c>
+      <c r="H56" s="24">
+        <f>SUM(G7+F8)</f>
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="G58" s="104">
+        <f>SUM(H54+H55+H56+H50)</f>
+        <v>8121.0333333333328</v>
+      </c>
+      <c r="H58" s="24">
+        <f>SUM(H50+H54+H55)</f>
+        <v>5666.0333333333338</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C56"/>
+  <mergeCells count="4">
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A20:A34"/>
+    <mergeCell ref="A35:A39"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/2020_SummerTrip.xlsx
+++ b/2020_SummerTrip.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="176">
   <si>
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,6 +725,14 @@
   </si>
   <si>
     <t>林刷卡總計高鐵(人)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩樂總金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷卡補帳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2864,10 +2872,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3962,12 +3970,28 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="58" spans="3:8">
-      <c r="G58" s="104">
+    <row r="59" spans="3:8">
+      <c r="C59" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G59" s="104">
+        <f>SUM(H54+H55+H56)</f>
+        <v>6528.0333333333328</v>
+      </c>
+      <c r="H59" s="24">
+        <f>SUM(H54+H55)</f>
+        <v>4073.0333333333328</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G60" s="104">
         <f>SUM(H54+H55+H56+H50)</f>
         <v>8121.0333333333328</v>
       </c>
-      <c r="H58" s="24">
+      <c r="H60" s="24">
         <f>SUM(H50+H54+H55)</f>
         <v>5666.0333333333338</v>
       </c>

--- a/2020_SummerTrip.xlsx
+++ b/2020_SummerTrip.xlsx
@@ -2874,8 +2874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="91">
-        <f t="shared" ref="F3:F7" si="0">SUM(D3*E3)</f>
+        <f t="shared" ref="F3:F8" si="0">SUM(D3*E3)</f>
         <v>14618</v>
       </c>
       <c r="G3" s="93"/>
@@ -3064,13 +3064,14 @@
         <v>1490</v>
       </c>
       <c r="E7" s="37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="49">
         <f t="shared" si="0"/>
-        <v>1490</v>
+        <v>5960</v>
       </c>
       <c r="G7" s="90">
+        <f>SUM(F7/4)</f>
         <v>1490</v>
       </c>
       <c r="H7" s="49"/>
@@ -3090,12 +3091,14 @@
         <v>965</v>
       </c>
       <c r="E8" s="37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="49">
-        <v>965</v>
+        <f t="shared" si="0"/>
+        <v>3860</v>
       </c>
       <c r="G8" s="90">
+        <f>SUM(F8/4)</f>
         <v>965</v>
       </c>
       <c r="H8" s="49"/>
@@ -3495,7 +3498,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="49">
-        <f t="shared" si="1"/>
+        <f>SUM(D25*E25)</f>
         <v>1750</v>
       </c>
       <c r="G25" s="90"/>
@@ -3962,11 +3965,11 @@
         <v>173</v>
       </c>
       <c r="F56" s="24">
-        <f>SUM(F7+F8)</f>
+        <f>SUM(F7+F8)/4</f>
         <v>2455</v>
       </c>
       <c r="H56" s="24">
-        <f>SUM(G7+F8)</f>
+        <f>SUM(G7+G8)</f>
         <v>2455</v>
       </c>
     </row>
